--- a/График.xlsx
+++ b/График.xlsx
@@ -127,6 +127,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="12"/>
   <chart>
     <title>
       <tx>
@@ -169,12 +170,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Первый лист'!$A$2:$A$28</f>
+              <f>'Первый лист'!$A$2:$A$27</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Первый лист'!$B$2:$B$28</f>
+              <f>'Первый лист'!$B$2:$B$27</f>
             </numRef>
           </val>
         </ser>
@@ -188,6 +189,9 @@
           </tx>
           <spPr>
             <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="008000"/>
+              </a:solidFill>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -201,15 +205,51 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Первый лист'!$A$2:$A$28</f>
+              <f>'Первый лист'!$A$2:$A$27</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Первый лист'!$C$2:$C$28</f>
+              <f>'Первый лист'!$C$2:$C$27</f>
             </numRef>
           </val>
         </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <strRef>
+              <f>'Первый лист'!D1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln w="100050">
+              <a:solidFill>
+                <a:srgbClr val="00AAAA"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Первый лист'!$A$2:$A$27</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Первый лист'!$D$2:$D$27</f>
+            </numRef>
+          </val>
+        </ser>
+        <smooth val="1"/>
         <axId val="10"/>
         <axId val="100"/>
       </lineChart>
@@ -284,7 +324,7 @@
       <row>1</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="10800000" cy="2700000"/>
+    <ext cx="12600000" cy="7200000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -622,8 +662,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>январь</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>44</v>
@@ -664,8 +706,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>5</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>февраль</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>320</v>
@@ -720,8 +764,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>9</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>март</t>
+        </is>
       </c>
       <c r="B9" t="n">
         <v>870</v>
@@ -790,8 +836,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>14</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>апрель</t>
+        </is>
       </c>
       <c r="B14" t="n">
         <v>2110</v>
@@ -846,8 +894,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>18</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>май</t>
+        </is>
       </c>
       <c r="B18" t="n">
         <v>4250</v>
@@ -902,8 +952,10 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>22</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>июнь</t>
+        </is>
       </c>
       <c r="B22" t="n">
         <v>5933</v>
@@ -972,8 +1024,10 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>27</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>июль</t>
+        </is>
       </c>
       <c r="B27" t="n">
         <v>8213</v>
